--- a/WMCVotes.xlsx
+++ b/WMCVotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mys_721tx/Desktop/Wikipedia-Voting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBCC503-25BE-6146-B0AF-1181E665ACC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D767A-CA6B-BB4B-A0A5-3EDCE805740E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017Panzer_VI-II" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="397">
   <si>
     <t>Alexander_Misel</t>
   </si>
@@ -548,9 +548,6 @@
   </si>
   <si>
     <t>IsMember?</t>
-  </si>
-  <si>
-    <t>N-C16</t>
   </si>
   <si>
     <t>Wikijjj0001</t>
@@ -1603,7 +1600,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1622,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -1641,14 +1638,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -1664,14 +1661,14 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -1687,14 +1684,14 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -1703,21 +1700,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -1726,7 +1723,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1740,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -1756,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1765,14 +1762,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1788,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1836,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" t="b">
         <f>_xlfn.IFNA(MATCH(D12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1852,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" t="b">
         <f>_xlfn.IFNA(MATCH(D13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1861,14 +1858,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" t="b">
         <f>_xlfn.IFNA(MATCH(D14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1900,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" t="b">
         <f>_xlfn.IFNA(MATCH(D16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1909,14 +1906,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E17" t="b">
         <f>_xlfn.IFNA(MATCH(D17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1932,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" t="b">
         <f>_xlfn.IFNA(MATCH(D18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1950,7 +1947,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -1995,7 +1992,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2040,7 +2037,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2112,7 +2109,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2121,7 +2118,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2157,7 +2154,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" t="b">
         <f>_xlfn.IFNA(MATCH(A43,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2202,7 +2199,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B48" t="b">
         <f>_xlfn.IFNA(MATCH(A48,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" t="b">
         <f>_xlfn.IFNA(MATCH(A50,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2265,7 +2262,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -2274,14 +2271,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -2297,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -2313,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -2322,14 +2319,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -2338,17 +2335,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2407,7 +2404,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2416,7 +2413,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2425,7 +2422,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2434,7 +2431,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2497,7 +2494,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2533,7 +2530,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2551,7 +2548,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2587,7 +2584,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2650,7 +2647,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" t="b">
         <f>_xlfn.IFNA(MATCH(A40,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2667,7 +2664,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2686,7 +2683,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -2709,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2732,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -2741,7 +2738,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2755,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -2778,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2801,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -2826,14 +2823,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2858,7 +2855,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2867,7 +2864,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2885,7 +2882,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2894,7 +2891,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2912,7 +2909,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -2929,7 +2926,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2948,7 +2945,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -2964,14 +2961,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -2987,14 +2984,14 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -3003,7 +3000,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3017,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -3026,21 +3023,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -3056,14 +3053,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -3072,7 +3069,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3153,7 +3150,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3162,7 +3159,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3171,7 +3168,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3189,7 +3186,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3216,7 +3213,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3225,7 +3222,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3306,6 +3303,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3314,7 +3312,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3333,7 +3331,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -3349,14 +3347,14 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -3365,21 +3363,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -3395,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -3404,7 +3402,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -3413,7 +3411,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -3430,7 +3428,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3454,7 +3452,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -3463,7 +3461,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3477,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -3500,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -3509,7 +3507,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3523,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -3532,7 +3530,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3546,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -3555,7 +3553,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3569,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -3594,14 +3592,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3610,7 +3608,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3626,7 +3624,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3658,7 +3656,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3674,14 +3672,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E13" t="b">
         <f>_xlfn.IFNA(MATCH(D13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3690,7 +3688,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3706,7 +3704,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3715,7 +3713,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3742,7 +3740,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3751,7 +3749,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3769,7 +3767,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3778,7 +3776,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3796,7 +3794,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3805,7 +3803,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3814,7 +3812,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3823,7 +3821,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3832,7 +3830,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3841,7 +3839,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3859,7 +3857,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3877,7 +3875,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -3894,7 +3892,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3913,7 +3911,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -3922,14 +3920,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -3945,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -3954,14 +3952,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -3977,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -3993,15 +3991,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4046,7 +4044,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4055,7 +4053,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4064,7 +4062,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4073,7 +4071,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4082,7 +4080,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4100,7 +4098,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4109,7 +4107,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4136,7 +4134,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4154,7 +4152,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4163,7 +4161,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4172,7 +4170,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4217,7 +4215,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4253,7 +4251,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4262,7 +4260,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4271,7 +4269,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4316,7 +4314,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4325,7 +4323,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" t="b">
         <f>_xlfn.IFNA(MATCH(A43,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4343,7 +4341,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4352,7 +4350,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4369,7 +4367,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4391,7 +4389,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -4400,14 +4398,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -4423,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -4439,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -4448,14 +4446,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -4464,17 +4462,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4497,7 +4495,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4515,7 +4513,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4524,7 +4522,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4542,7 +4540,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4551,7 +4549,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4569,7 +4567,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4587,7 +4585,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4605,7 +4603,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4623,7 +4621,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4650,7 +4648,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4659,7 +4657,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4668,7 +4666,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4686,7 +4684,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4749,7 +4747,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4758,7 +4756,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4767,7 +4765,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4785,7 +4783,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" t="b">
         <f>_xlfn.IFNA(MATCH(A41,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4794,7 +4792,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4812,7 +4810,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4821,7 +4819,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4830,7 +4828,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4839,7 +4837,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" t="b">
         <f>_xlfn.IFNA(MATCH(A47,Members!$A:$A,0), 0) &gt; 0</f>
@@ -4865,7 +4863,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4890,7 +4888,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -4906,14 +4904,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -4922,21 +4920,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -4945,21 +4943,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -4982,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -4991,21 +4989,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -5014,14 +5012,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5069,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" t="b">
         <f>_xlfn.IFNA(MATCH(D10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5085,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" t="b">
         <f>_xlfn.IFNA(MATCH(D11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5101,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" t="b">
         <f>_xlfn.IFNA(MATCH(D12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5117,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" t="b">
         <f>_xlfn.IFNA(MATCH(D13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5133,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" t="b">
         <f>_xlfn.IFNA(MATCH(D14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5149,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" t="b">
         <f>_xlfn.IFNA(MATCH(D15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5165,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E16" t="b">
         <f>_xlfn.IFNA(MATCH(D16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5201,7 +5199,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5228,7 +5226,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5264,7 +5262,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5273,7 +5271,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5282,7 +5280,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5326,7 +5324,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5345,7 +5343,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -5354,21 +5352,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -5377,7 +5375,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5391,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -5407,14 +5405,14 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -5430,14 +5428,14 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -5453,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -5462,7 +5460,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5471,7 +5469,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5534,7 +5532,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5543,7 +5541,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5561,7 +5559,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5570,7 +5568,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5597,7 +5595,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5606,7 +5604,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5624,7 +5622,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5642,7 +5640,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5669,7 +5667,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5696,7 +5694,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5714,7 +5712,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5723,7 +5721,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5741,7 +5739,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5758,7 +5756,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5783,7 +5781,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -5799,14 +5797,14 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -5822,14 +5820,14 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -5845,14 +5843,14 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -5875,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -5891,14 +5889,14 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -5907,14 +5905,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5923,14 +5921,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5946,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5962,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" t="b">
         <f>_xlfn.IFNA(MATCH(D10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -5989,7 +5987,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6016,7 +6014,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6025,7 +6023,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6034,7 +6032,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6052,7 +6050,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6061,7 +6059,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6079,7 +6077,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6088,7 +6086,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6106,7 +6104,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6115,7 +6113,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6133,7 +6131,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6142,7 +6140,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6160,7 +6158,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6169,7 +6167,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6187,7 +6185,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6196,7 +6194,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6205,7 +6203,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6214,7 +6212,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6223,7 +6221,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6241,7 +6239,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" t="b">
         <f>_xlfn.IFNA(MATCH(A41,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6268,7 +6266,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6286,7 +6284,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6295,7 +6293,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" t="b">
         <f>_xlfn.IFNA(MATCH(A47,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6322,7 +6320,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B50" t="b">
         <f>_xlfn.IFNA(MATCH(A50,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6349,7 +6347,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B53" t="b">
         <f>_xlfn.IFNA(MATCH(A53,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6388,7 +6386,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -6411,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -6434,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -6450,14 +6448,14 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -6473,14 +6471,14 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -6489,7 +6487,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6503,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -6512,7 +6510,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6521,7 +6519,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6562,7 +6560,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -6578,14 +6576,14 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -6594,21 +6592,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -6617,21 +6615,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -6640,7 +6638,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6654,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -6670,14 +6668,14 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -6693,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6702,7 +6700,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6725,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6750,14 +6748,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" t="b">
         <f>_xlfn.IFNA(MATCH(D11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6773,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" t="b">
         <f>_xlfn.IFNA(MATCH(D12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6789,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E13" t="b">
         <f>_xlfn.IFNA(MATCH(D13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6798,14 +6796,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" t="b">
         <f>_xlfn.IFNA(MATCH(D14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6823,7 +6821,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6832,7 +6830,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6841,7 +6839,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6858,7 +6856,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6877,7 +6875,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -6886,21 +6884,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -6916,14 +6914,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -6932,7 +6930,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -6946,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -6962,14 +6960,14 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -6978,21 +6976,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -7001,7 +6999,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7017,7 +7015,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7040,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7049,7 +7047,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7065,14 +7063,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" t="b">
         <f>_xlfn.IFNA(MATCH(D11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7104,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" t="b">
         <f>_xlfn.IFNA(MATCH(D13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7120,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E14" t="b">
         <f>_xlfn.IFNA(MATCH(D14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7129,7 +7127,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7147,7 +7145,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7156,7 +7154,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7165,7 +7163,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7174,7 +7172,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7183,7 +7181,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7192,7 +7190,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7201,7 +7199,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7210,7 +7208,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7219,7 +7217,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7228,7 +7226,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7237,7 +7235,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7255,7 +7253,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7264,7 +7262,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7273,7 +7271,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7282,7 +7280,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7291,7 +7289,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7300,7 +7298,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7309,7 +7307,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7325,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7345,7 +7343,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -7354,7 +7352,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7368,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -7377,21 +7375,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -7400,21 +7398,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -7437,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -7446,14 +7444,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -7480,7 +7478,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7489,7 +7487,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7498,7 +7496,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7525,7 +7523,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7534,7 +7532,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7561,7 +7559,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7579,7 +7577,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7588,7 +7586,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7597,7 +7595,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7606,7 +7604,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7624,7 +7622,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7633,7 +7631,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7642,7 +7640,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7669,7 +7667,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7678,7 +7676,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7696,7 +7694,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7705,7 +7703,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7723,7 +7721,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7732,7 +7730,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7750,7 +7748,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7789,7 +7787,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -7798,21 +7796,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -7821,7 +7819,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7835,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -7844,7 +7842,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7858,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -7867,7 +7865,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7881,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -7890,21 +7888,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -7913,7 +7911,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7936,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7945,14 +7943,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7968,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" t="b">
         <f>_xlfn.IFNA(MATCH(D10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7977,7 +7975,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -7993,7 +7991,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8025,14 +8023,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" t="b">
         <f>_xlfn.IFNA(MATCH(D14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8041,7 +8039,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8057,7 +8055,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8080,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" t="b">
         <f>_xlfn.IFNA(MATCH(D17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8098,7 +8096,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19" t="b">
         <f>_xlfn.IFNA(MATCH(D19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8116,7 +8114,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" t="b">
         <f>_xlfn.IFNA(MATCH(D21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8161,7 +8159,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" t="b">
         <f>_xlfn.IFNA(MATCH(D26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8206,7 +8204,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -8215,21 +8213,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -8238,21 +8236,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -8261,21 +8259,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -8291,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -8300,14 +8298,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -8316,7 +8314,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8334,7 +8332,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8343,7 +8341,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8361,7 +8359,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8370,7 +8368,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8379,7 +8377,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8388,7 +8386,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8397,7 +8395,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8406,7 +8404,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8415,7 +8413,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8442,7 +8440,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8451,7 +8449,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8469,7 +8467,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8478,7 +8476,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8496,7 +8494,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8505,7 +8503,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8514,7 +8512,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8523,7 +8521,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8532,7 +8530,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8568,7 +8566,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -8577,21 +8575,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -8600,21 +8598,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -8630,14 +8628,14 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -8646,21 +8644,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -8669,21 +8667,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -8699,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8715,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8724,7 +8722,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8733,7 +8731,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8742,7 +8740,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8751,7 +8749,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8760,7 +8758,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8778,7 +8776,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8805,7 +8803,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8823,7 +8821,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8832,7 +8830,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8841,7 +8839,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8850,7 +8848,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8859,7 +8857,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8868,7 +8866,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8877,7 +8875,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8895,7 +8893,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8913,7 +8911,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8940,7 +8938,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8949,7 +8947,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8958,7 +8956,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8976,7 +8974,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -8994,7 +8992,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9003,7 +9001,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" t="b">
         <f>_xlfn.IFNA(MATCH(A40,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9012,7 +9010,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B41" t="b">
         <f>_xlfn.IFNA(MATCH(A41,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9030,7 +9028,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" t="b">
         <f>_xlfn.IFNA(MATCH(A43,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9039,7 +9037,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9048,7 +9046,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9057,7 +9055,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9075,7 +9073,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" t="b">
         <f>_xlfn.IFNA(MATCH(A48,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9093,7 +9091,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B50" t="b">
         <f>_xlfn.IFNA(MATCH(A50,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9102,7 +9100,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" t="b">
         <f>_xlfn.IFNA(MATCH(A51,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9111,7 +9109,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B52" t="b">
         <f>_xlfn.IFNA(MATCH(A52,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9120,7 +9118,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53" t="b">
         <f>_xlfn.IFNA(MATCH(A53,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9129,7 +9127,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B54" t="b">
         <f>_xlfn.IFNA(MATCH(A54,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9138,7 +9136,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B55" t="b">
         <f>_xlfn.IFNA(MATCH(A55,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9147,7 +9145,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" t="b">
         <f>_xlfn.IFNA(MATCH(A56,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9186,7 +9184,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -9202,14 +9200,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -9218,21 +9216,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -9248,14 +9246,14 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -9264,21 +9262,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -9287,21 +9285,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -9317,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9326,14 +9324,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9342,7 +9340,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9351,7 +9349,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9360,7 +9358,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9387,7 +9385,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9405,7 +9403,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9414,7 +9412,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9423,7 +9421,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9432,7 +9430,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9441,7 +9439,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9468,7 +9466,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9513,7 +9511,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9522,7 +9520,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9540,7 +9538,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9558,7 +9556,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9585,7 +9583,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9603,7 +9601,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9612,7 +9610,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9621,7 +9619,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" t="b">
         <f>_xlfn.IFNA(MATCH(A40,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9630,7 +9628,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" t="b">
         <f>_xlfn.IFNA(MATCH(A41,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9639,7 +9637,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9693,7 +9691,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" t="b">
         <f>_xlfn.IFNA(MATCH(A48,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9702,7 +9700,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" t="b">
         <f>_xlfn.IFNA(MATCH(A49,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9711,7 +9709,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" t="b">
         <f>_xlfn.IFNA(MATCH(A50,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9720,7 +9718,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51" t="b">
         <f>_xlfn.IFNA(MATCH(A51,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9756,7 +9754,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B55" t="b">
         <f>_xlfn.IFNA(MATCH(A55,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9765,7 +9763,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B56" t="b">
         <f>_xlfn.IFNA(MATCH(A56,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9783,7 +9781,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" t="b">
         <f>_xlfn.IFNA(MATCH(A58,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9792,7 +9790,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B59" t="b">
         <f>_xlfn.IFNA(MATCH(A59,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9801,7 +9799,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B60" t="b">
         <f>_xlfn.IFNA(MATCH(A60,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9810,7 +9808,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B61" t="b">
         <f>_xlfn.IFNA(MATCH(A61,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9819,7 +9817,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" t="b">
         <f>_xlfn.IFNA(MATCH(A62,Members!$A:$A,0), 0) &gt; 0</f>
@@ -9870,7 +9868,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -9879,21 +9877,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -9902,21 +9900,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -9925,21 +9923,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -9948,21 +9946,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -9978,14 +9976,14 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -9994,7 +9992,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10010,14 +10008,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10033,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10042,14 +10040,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E10" t="b">
         <f>_xlfn.IFNA(MATCH(D10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10058,14 +10056,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11" t="b">
         <f>_xlfn.IFNA(MATCH(D11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10074,14 +10072,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E12" t="b">
         <f>_xlfn.IFNA(MATCH(D12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10090,14 +10088,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E13" t="b">
         <f>_xlfn.IFNA(MATCH(D13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10106,14 +10104,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" t="b">
         <f>_xlfn.IFNA(MATCH(D14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10122,7 +10120,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10138,14 +10136,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E16" t="b">
         <f>_xlfn.IFNA(MATCH(D16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10154,14 +10152,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" t="b">
         <f>_xlfn.IFNA(MATCH(D17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10170,14 +10168,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" t="b">
         <f>_xlfn.IFNA(MATCH(D18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10186,14 +10184,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E19" t="b">
         <f>_xlfn.IFNA(MATCH(D19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10202,7 +10200,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10218,7 +10216,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10234,14 +10232,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" t="b">
         <f>_xlfn.IFNA(MATCH(D22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10250,14 +10248,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E23" t="b">
         <f>_xlfn.IFNA(MATCH(D23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10266,14 +10264,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E24" t="b">
         <f>_xlfn.IFNA(MATCH(D24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10282,7 +10280,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10298,14 +10296,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26" t="b">
         <f>_xlfn.IFNA(MATCH(D26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10314,14 +10312,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B27" t="b">
         <f>_xlfn.IFNA(MATCH(A27,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E27" t="b">
         <f>_xlfn.IFNA(MATCH(D27,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10330,14 +10328,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" t="b">
         <f>_xlfn.IFNA(MATCH(A28,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E28" t="b">
         <f>_xlfn.IFNA(MATCH(D28,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10346,14 +10344,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E29" t="b">
         <f>_xlfn.IFNA(MATCH(D29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10362,14 +10360,14 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E30" t="b">
         <f>_xlfn.IFNA(MATCH(D30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10385,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E31" t="b">
         <f>_xlfn.IFNA(MATCH(D31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10394,7 +10392,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E32" t="b">
         <f>_xlfn.IFNA(MATCH(D32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10403,7 +10401,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" t="b">
         <f>_xlfn.IFNA(MATCH(D33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10412,7 +10410,7 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E34" t="b">
         <f>_xlfn.IFNA(MATCH(D34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10421,7 +10419,7 @@
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E35" t="b">
         <f>_xlfn.IFNA(MATCH(D35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10430,7 +10428,7 @@
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" t="b">
         <f>_xlfn.IFNA(MATCH(D36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10469,7 +10467,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -10485,14 +10483,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -10508,14 +10506,14 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -10524,21 +10522,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -10554,14 +10552,14 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -10570,21 +10568,21 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -10600,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10609,7 +10607,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10618,7 +10616,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" t="b">
         <f>_xlfn.IFNA(MATCH(A9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10645,7 +10643,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10654,7 +10652,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" t="b">
         <f>_xlfn.IFNA(MATCH(A13,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10663,7 +10661,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10690,7 +10688,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10699,7 +10697,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10717,7 +10715,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10726,7 +10724,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10735,7 +10733,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10744,7 +10742,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="b">
         <f>_xlfn.IFNA(MATCH(A23,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10753,7 +10751,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10798,7 +10796,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10816,7 +10814,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10825,7 +10823,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10834,7 +10832,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" t="b">
         <f>_xlfn.IFNA(MATCH(A33,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10861,7 +10859,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10870,7 +10868,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10897,7 +10895,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" t="b">
         <f>_xlfn.IFNA(MATCH(A40,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10915,7 +10913,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10942,7 +10940,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -10951,7 +10949,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11690,7 +11688,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -11706,14 +11704,14 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -11722,21 +11720,21 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" t="b">
         <f>_xlfn.IFNA(MATCH(A3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -11752,14 +11750,14 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -11768,21 +11766,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -11791,7 +11789,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="b">
         <f>_xlfn.IFNA(MATCH(A6,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11805,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -11814,14 +11812,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" t="b">
         <f>_xlfn.IFNA(MATCH(A7,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11853,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11871,7 +11869,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11907,7 +11905,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11916,7 +11914,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -11925,7 +11923,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12031,7 +12029,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -12047,14 +12045,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -12070,14 +12068,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -12100,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -12116,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -12132,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -12576,7 +12574,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -12585,7 +12583,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12599,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -12615,14 +12613,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E3" t="b">
         <f>_xlfn.IFNA(MATCH(D3,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -12631,21 +12629,21 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" t="b">
         <f>_xlfn.IFNA(MATCH(A4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -12654,21 +12652,21 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -12684,14 +12682,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -12707,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12716,7 +12714,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12739,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12771,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E11" t="b">
         <f>_xlfn.IFNA(MATCH(D11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12822,7 +12820,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -12831,21 +12829,21 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" t="b">
         <f>_xlfn.IFNA(MATCH(A2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -12868,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -12884,14 +12882,14 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" t="b">
         <f>_xlfn.IFNA(MATCH(D4,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -12907,14 +12905,14 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" t="b">
         <f>_xlfn.IFNA(MATCH(D5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -12930,14 +12928,14 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" t="b">
         <f>_xlfn.IFNA(MATCH(D6,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -12953,7 +12951,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E7" t="b">
         <f>_xlfn.IFNA(MATCH(D7,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12962,14 +12960,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" t="b">
         <f>_xlfn.IFNA(MATCH(D8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12985,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E9" t="b">
         <f>_xlfn.IFNA(MATCH(D9,Members!$A:$A,0), 0) &gt; 0</f>
@@ -12994,7 +12992,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13003,7 +13001,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13012,7 +13010,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13039,7 +13037,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" t="b">
         <f>_xlfn.IFNA(MATCH(A15,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13048,7 +13046,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13057,7 +13055,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B17" t="b">
         <f>_xlfn.IFNA(MATCH(A17,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13066,7 +13064,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" t="b">
         <f>_xlfn.IFNA(MATCH(A18,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13075,7 +13073,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13084,7 +13082,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" t="b">
         <f>_xlfn.IFNA(MATCH(A20,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13093,7 +13091,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13102,7 +13100,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13120,7 +13118,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13129,7 +13127,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13174,7 +13172,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B30" t="b">
         <f>_xlfn.IFNA(MATCH(A30,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13210,7 +13208,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13219,7 +13217,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13246,7 +13244,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13255,7 +13253,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" t="b">
         <f>_xlfn.IFNA(MATCH(A39,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13300,7 +13298,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13318,7 +13316,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" t="b">
         <f>_xlfn.IFNA(MATCH(A46,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13327,7 +13325,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" t="b">
         <f>_xlfn.IFNA(MATCH(A47,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13343,7 +13341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -13366,7 +13364,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A2998)</f>
@@ -13382,14 +13380,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" t="b">
         <f>_xlfn.IFNA(MATCH(D2,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B2998,TRUE)</f>
@@ -13405,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -13421,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D2998)</f>
@@ -13437,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E2998,TRUE)</f>
@@ -13453,7 +13451,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1">
         <f>H5/H4</f>
@@ -13471,7 +13469,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13498,7 +13496,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13525,7 +13523,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13570,7 +13568,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" t="b">
         <f>_xlfn.IFNA(MATCH(A19,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13597,7 +13595,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="b">
         <f>_xlfn.IFNA(MATCH(A22,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13624,7 +13622,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13660,7 +13658,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" t="b">
         <f>_xlfn.IFNA(MATCH(A29,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13714,7 +13712,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B35" t="b">
         <f>_xlfn.IFNA(MATCH(A35,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13723,7 +13721,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13759,7 +13757,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B40" t="b">
         <f>_xlfn.IFNA(MATCH(A40,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13777,7 +13775,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13804,7 +13802,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" t="b">
         <f>_xlfn.IFNA(MATCH(A45,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13831,7 +13829,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" t="b">
         <f>_xlfn.IFNA(MATCH(A48,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13872,7 +13870,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -13888,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -13904,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -13920,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -13936,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -13952,10 +13950,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -13969,7 +13967,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" t="b">
         <f>_xlfn.IFNA(MATCH(A8,Members!$A:$A,0), 0) &gt; 0</f>
@@ -13987,7 +13985,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14005,7 +14003,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" t="b">
         <f>_xlfn.IFNA(MATCH(A12,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14086,7 +14084,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14185,7 +14183,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14203,7 +14201,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14221,7 +14219,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B36" t="b">
         <f>_xlfn.IFNA(MATCH(A36,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14239,7 +14237,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" t="b">
         <f>_xlfn.IFNA(MATCH(A38,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14257,7 +14255,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" t="b">
         <f>_xlfn.IFNA(MATCH(A40,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14275,7 +14273,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42" t="b">
         <f>_xlfn.IFNA(MATCH(A42,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14293,7 +14291,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B44" t="b">
         <f>_xlfn.IFNA(MATCH(A44,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14329,7 +14327,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B48" t="b">
         <f>_xlfn.IFNA(MATCH(A48,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14338,7 +14336,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" t="b">
         <f>_xlfn.IFNA(MATCH(A49,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14356,7 +14354,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B51" t="b">
         <f>_xlfn.IFNA(MATCH(A51,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14419,7 +14417,7 @@
         <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H1">
         <f>COUNTA(A2:A3000)</f>
@@ -14435,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2">
         <f>COUNTIF(B2:B3000,TRUE)</f>
@@ -14451,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1">
         <f>H2/H1</f>
@@ -14467,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H4">
         <f>COUNTA(D2:D3000)</f>
@@ -14476,14 +14474,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" t="b">
         <f>_xlfn.IFNA(MATCH(A5,Members!$A:$A,0), 0) &gt; 0</f>
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <f>COUNTIF(E2:E3000,TRUE)</f>
@@ -14499,10 +14497,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -14534,7 +14532,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" t="b">
         <f>_xlfn.IFNA(MATCH(A10,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14543,7 +14541,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" t="b">
         <f>_xlfn.IFNA(MATCH(A11,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14570,7 +14568,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B14" t="b">
         <f>_xlfn.IFNA(MATCH(A14,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14588,7 +14586,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" t="b">
         <f>_xlfn.IFNA(MATCH(A16,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14633,7 +14631,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B21" t="b">
         <f>_xlfn.IFNA(MATCH(A21,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14660,7 +14658,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" t="b">
         <f>_xlfn.IFNA(MATCH(A24,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14669,7 +14667,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B25" t="b">
         <f>_xlfn.IFNA(MATCH(A25,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14678,7 +14676,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B26" t="b">
         <f>_xlfn.IFNA(MATCH(A26,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14723,7 +14721,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B31" t="b">
         <f>_xlfn.IFNA(MATCH(A31,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14732,7 +14730,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" t="b">
         <f>_xlfn.IFNA(MATCH(A32,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14750,7 +14748,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B34" t="b">
         <f>_xlfn.IFNA(MATCH(A34,Members!$A:$A,0), 0) &gt; 0</f>
@@ -14777,7 +14775,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B37" t="b">
         <f>_xlfn.IFNA(MATCH(A37,Members!$A:$A,0), 0) &gt; 0</f>
